--- a/data/case1/5/V1_13.xlsx
+++ b/data/case1/5/V1_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999111120563</v>
+        <v>0.99999999019174424</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.9976508864911916</v>
+        <v>0.99888287058427372</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99288617522230727</v>
+        <v>0.99645592675115324</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.99523591666720812</v>
+        <v>1.0005293919720049</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.98441291674698239</v>
+        <v>0.99149140915699796</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.95926305656769117</v>
+        <v>0.97172043236307193</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.95429344795414706</v>
+        <v>0.97004772537702344</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.94683791681077945</v>
+        <v>0.96715380890593938</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.93833181765937912</v>
+        <v>0.9667046726576356</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.93073486397803218</v>
+        <v>0.96720211046493032</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.92958952667487804</v>
+        <v>0.96730321755216919</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.92766634976141793</v>
+        <v>0.96775258872670966</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.9163797440770225</v>
+        <v>0.97295545779516113</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.91221254070312918</v>
+        <v>0.97650824436627848</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.90962114045821707</v>
+        <v>0.974450051409818</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.9071146989494836</v>
+        <v>0.97241152104201145</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.90340684014797623</v>
+        <v>0.97086794467908932</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.90229794222310034</v>
+        <v>0.97029049934398193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99544381756703193</v>
+        <v>0.99782971717511293</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.97957636641885604</v>
+        <v>0.99071295046317742</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.97607635885959743</v>
+        <v>0.98931450446673419</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.97481185213989763</v>
+        <v>0.98805001049493646</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.98585201731189365</v>
+        <v>0.98942203062549572</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.97283178256293423</v>
+        <v>0.97640205927429569</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.96637490196936893</v>
+        <v>0.96994522400304772</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.95684590595755759</v>
+        <v>0.9687840833218675</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.95372458914301594</v>
+        <v>0.96493832827211456</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.94134243433446141</v>
+        <v>0.95056820335931413</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.93280587767342116</v>
+        <v>0.94054146476672762</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.92918392854885123</v>
+        <v>0.93566735955278868</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.93036189055999219</v>
+        <v>0.93529823296298154</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.93187278986597732</v>
+        <v>0.93642516972771017</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.93577072963665275</v>
+        <v>0.9401462086730803</v>
       </c>
     </row>
   </sheetData>
